--- a/文件/專題甘特圖.xlsx
+++ b/文件/專題甘特圖.xlsx
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -270,6 +270,7 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -791,9 +792,9 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -813,7 +814,7 @@
       <c r="B13" s="18"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="23"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -836,9 +837,9 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -858,7 +859,7 @@
       <c r="B15" s="18"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="23"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -878,12 +879,12 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -903,7 +904,7 @@
       <c r="B17" s="18"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="V17" s="19"/>
       <c r="Y17" s="21"/>
     </row>
@@ -920,8 +921,8 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -940,11 +941,11 @@
       </c>
       <c r="B19" s="18"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
-      <c r="Y19" s="24"/>
+      <c r="Y19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" s="12"/>
@@ -960,7 +961,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -978,11 +979,11 @@
         <v>23</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="N21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
-      <c r="Y21" s="24"/>
+      <c r="Y21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" s="12"/>
@@ -1025,16 +1026,16 @@
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="L1:M2"/>
     <mergeCell ref="N1:O2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
